--- a/raw_data/count_gen.xlsx
+++ b/raw_data/count_gen.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarmedina/Documents/git/Dreger_2022/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193FAF29-88CF-6846-B7EE-0B4E4FADDBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C858B-3AE7-D14A-BAA6-F77863DAF5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{08F02F33-B5F3-124F-85DF-E23171355980}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{08F02F33-B5F3-124F-85DF-E23171355980}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>env</t>
   </si>
@@ -59,19 +61,166 @@
   </si>
   <si>
     <t>ID_2018_1</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>2018_1</t>
+  </si>
+  <si>
+    <t>2018_2</t>
+  </si>
+  <si>
+    <t>2018_3</t>
+  </si>
+  <si>
+    <t>2019_1</t>
+  </si>
+  <si>
+    <t>2019_2</t>
+  </si>
+  <si>
+    <t>2019_3</t>
+  </si>
+  <si>
+    <t>2019_4</t>
+  </si>
+  <si>
+    <t>2019_5</t>
+  </si>
+  <si>
+    <t>Cprot</t>
+  </si>
+  <si>
+    <t>ADF</t>
+  </si>
+  <si>
+    <t>aNDF</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>Lignin</t>
+  </si>
+  <si>
+    <t>Starch</t>
+  </si>
+  <si>
+    <t>Su_ES</t>
+  </si>
+  <si>
+    <t>Su_WS</t>
+  </si>
+  <si>
+    <t>2020_1</t>
+  </si>
+  <si>
+    <t>2020_2*</t>
+  </si>
+  <si>
+    <t>2020_3*</t>
+  </si>
+  <si>
+    <t>2020_4*</t>
+  </si>
+  <si>
+    <t>Just for OR</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>ID_2018_2</t>
+  </si>
+  <si>
+    <t>FDC</t>
+  </si>
+  <si>
+    <t>FD_ID</t>
+  </si>
+  <si>
+    <t>FD_OR</t>
+  </si>
+  <si>
+    <t>FD_WA</t>
+  </si>
+  <si>
+    <t>FD_all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,8 +243,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,7 +270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -402,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB24652-DB57-CF44-820A-F900BC3C4CE5}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,4 +720,948 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092CE82A-B14F-7B4D-9899-486A639BF5B9}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D860EC8-5099-864D-8942-F7E96C01CC7B}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5">
+        <v>61</v>
+      </c>
+      <c r="D1" s="5">
+        <v>104</v>
+      </c>
+      <c r="E1" s="5">
+        <v>112</v>
+      </c>
+      <c r="F1" s="5">
+        <v>144</v>
+      </c>
+      <c r="G1" s="5">
+        <v>201</v>
+      </c>
+      <c r="H1" s="5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>112</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3.6103833989999998</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.5203247910000002</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.6898117699999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2.758496885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>201</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.182931473</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3.1497376479999999</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3.1800320009999998</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3.16536807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>144</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.3156066750000002</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4.2523653259999996</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3.010525393</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3.6822922400000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>202</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3.7792366990000001</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3.369453252</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3.5751808039999999</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3.5063263440000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.7716880009999998</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4.3329116250000004</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3.373368036</v>
+      </c>
+      <c r="F16" s="7">
+        <v>3.7528598249999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>104</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.6772267000000003</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4.2059610889999997</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4.3460694560000004</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4.3312081469999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>61</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4.493904637</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5.8535856239999999</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.799944118</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5.2757582909999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:F18">
+    <sortCondition ref="B11:B18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>